--- a/biology/Médecine/Santé_en_Guinée/Santé_en_Guinée.xlsx
+++ b/biology/Médecine/Santé_en_Guinée/Santé_en_Guinée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Guin%C3%A9e</t>
+          <t>Santé_en_Guinée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La République de Guinée est un pays de l'Afrique de l'ouest.
 Depuis son indépendance en 1958, il fait plusieurs progrès et fait face à des problèmes de santé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Guin%C3%A9e</t>
+          <t>Santé_en_Guinée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Infrastructures de santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1984 et 2000, des réformes comprenant la formalisation du secteur privé, l'activation des soins de santé primaires et le recouvrement des coûts ont commencé dans le cadre de la mise en œuvre de l'Initiative de Bamako et de la réforme des hôpitaux et des médicaments. Les réformes mises en œuvre ont permis de progresser dans la couverture sanitaire et le niveau des indicateurs de santé. Durant cette période, la Guinée a créé un paquet de textes et lois lier au soins maternels et infantiles de base pour les maladies courantes et la fourniture de médicaments essentiels. Ceci s'est accompagné de la réforme du financement de la santé basée sur les contributions des utilisateurs (Initiative de Bamako) en 1987[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1984 et 2000, des réformes comprenant la formalisation du secteur privé, l'activation des soins de santé primaires et le recouvrement des coûts ont commencé dans le cadre de la mise en œuvre de l'Initiative de Bamako et de la réforme des hôpitaux et des médicaments. Les réformes mises en œuvre ont permis de progresser dans la couverture sanitaire et le niveau des indicateurs de santé. Durant cette période, la Guinée a créé un paquet de textes et lois lier au soins maternels et infantiles de base pour les maladies courantes et la fourniture de médicaments essentiels. Ceci s'est accompagné de la réforme du financement de la santé basée sur les contributions des utilisateurs (Initiative de Bamako) en 1987.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Guin%C3%A9e</t>
+          <t>Santé_en_Guinée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Clinique Ambroise Paré
 Hôpital Ignace Deen
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Guin%C3%A9e</t>
+          <t>Santé_en_Guinée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,16 +595,161 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espérance de vie
-L'espérance de vie moyenne estimée par la CIA en 2014 en Guinée était de 59,60 ans[2].
-Ebola
-En 2014, il y a eu une épidémie du virus Ebola en Guinée.
-VIH/SIDA
-La Guinée compte environ 120 000 personnes vivant avec le VIH, soit environ 1,7% de la population du pays. En 2018, le pays comptait 4 300 décès dus au sida. Seul un quart des personnes infectées reçoivent un traitement antiviral car les stocks sont souvent en rupture de stock. Dans les hôpitaux soutenus par MSF, l'association a fait état de taux de mortalité très élevés, pouvant atteindre 40 % chez ses patients qui atteignent souvent un stade très avancé de la maladie[3].
-Coronavirus
-En 2021, pour contrer la propagation des cas d'infection au coronavirus, les autorités ont annoncé des mesures sanitaires, qui sont: des couvre-feux, la mise à disposition d'un test PCR négatif pour les déplacements entre les villes, l'engagement de porter un masque, l'interdiction des rassemblements de plus de 50 personnes et la fermeture des lieux de divertissement très fréquentés[4].
-Santé maternelle et infantile
-Le virus Ebola affecte la santé des plus vulnérables, à savoir les femmes enceintes et les enfants, dans un pays où les taux de mortalité maternelle et infantile restent élevés. 70% de la population guinéenne est pauvre. La Guinée compte une sage-femme pour 15 000 habitants, tandis que la norme de l'Organisation mondiale de la santé recommande une sage-femme pour 5 000 habitants[5].
+          <t>Espérance de vie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espérance de vie moyenne estimée par la CIA en 2014 en Guinée était de 59,60 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santé_en_Guinée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Guin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>État de santé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ebola</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, il y a eu une épidémie du virus Ebola en Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Santé_en_Guinée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Guin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>État de santé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>VIH/SIDA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Guinée compte environ 120 000 personnes vivant avec le VIH, soit environ 1,7% de la population du pays. En 2018, le pays comptait 4 300 décès dus au sida. Seul un quart des personnes infectées reçoivent un traitement antiviral car les stocks sont souvent en rupture de stock. Dans les hôpitaux soutenus par MSF, l'association a fait état de taux de mortalité très élevés, pouvant atteindre 40 % chez ses patients qui atteignent souvent un stade très avancé de la maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_en_Guinée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Guin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>État de santé</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coronavirus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, pour contrer la propagation des cas d'infection au coronavirus, les autorités ont annoncé des mesures sanitaires, qui sont: des couvre-feux, la mise à disposition d'un test PCR négatif pour les déplacements entre les villes, l'engagement de porter un masque, l'interdiction des rassemblements de plus de 50 personnes et la fermeture des lieux de divertissement très fréquentés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Santé_en_Guinée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_en_Guin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>État de santé</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Santé maternelle et infantile</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus Ebola affecte la santé des plus vulnérables, à savoir les femmes enceintes et les enfants, dans un pays où les taux de mortalité maternelle et infantile restent élevés. 70% de la population guinéenne est pauvre. La Guinée compte une sage-femme pour 15 000 habitants, tandis que la norme de l'Organisation mondiale de la santé recommande une sage-femme pour 5 000 habitants.
 </t>
         </is>
       </c>
